--- a/similarities/split_global/harmonic_similarity_timestamps_298.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_298.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab'], ['Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>['C', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C'], ['G:7', 'C', 'G:7']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:48.180000', '0:00:50.270000'), ('0:00:33.100000', '0:00:39.840000')]</t>
+          <t>('0:00:41.655000', '0:00:46.220000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000'), ('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:52.680839', '0:00:55.420793')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=48.18', 'https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=52.680839</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['A:min', 'E:(3,5,b7,b9)/A', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:33.440000', '0:01:38.780000'), ('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:01:00.760000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:38.060000', '0:01:45.600000'), ('0:02:14.220000', '0:02:19.560000')]</t>
+          <t>('0:00:32.380000', '0:00:46.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=93.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=60.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=98.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-100#t=32.38</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>jaah_42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C:7', 'F', 'F:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:05.440000', '0:00:12.950000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:15.027029', '0:00:22.457415')]</t>
+          <t>('0:00:41.770000', '0:00:54.590000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=15.027029']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:39.610440', '0:00:45.427039')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:02.570000', '0:02:04.490000')]</t>
+          <t>('0:00:07.700000', '0:00:12.060000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-115#t=39.61044']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=122.57']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:05.571955', '0:00:28.079297')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_215</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:06.090000', '0:00:09.538163')]</t>
+          <t>('0:00:03.884104', '0:00:26.140430')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:04:20.880000', '0:04:22.800000')]</t>
+          <t>('0:02:03.030000', '0:02:09.590000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-215#t=6.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=260.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+          <t>('0:00:33.698526', '0:00:42.916848')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:58.640000', '0:02:03.070000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_39</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:38.300000', '0:02:41.560000')]</t>
+          <t>('0:01:05.760000', '0:01:11.940000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:04.200000', '0:00:19.320000')]</t>
+          <t>('0:00:08.350000', '0:00:11.880000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=158.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=65.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=4.2']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:maj', 'G#:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:08.480000', '0:00:10.200000')]</t>
+          <t>('0:00:17.260000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
+          <t>('0:00:55.230000', '0:01:05.420000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=8.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=17.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+          <t>('0:00:41.080000', '0:00:42.940000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+          <t>('0:00:37.540000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=36.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:32.200000', '0:00:40.880000')]</t>
+          <t>('0:02:00.660000', '0:02:02.740000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+          <t>('0:00:27.760000', '0:00:40.180000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=120.66</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+          <t>('0:00:46.600000', '0:00:49.040000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:19.500000')]</t>
+          <t>('0:00:00.440395', '0:00:05.558652')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_215</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:04:31.500000', '0:04:33.280000')]</t>
+          <t>('0:00:19.820000', '0:00:29.100000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:06.090000', '0:00:09.538163')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=271.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=19.82</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-215#t=6.09']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:18.660000', '0:00:21.840000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:43.340000', '0:00:59.340000')]</t>
+          <t>('0:04:05.420000', '0:04:23.440000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=18.66</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=245.42</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:04.830000', '0:00:08.920000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:26.800000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=4.83']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
